--- a/packages/shared-types/src/test-cases/excel-sources/v1.0/v1.0_test-02_allegre.xlsx
+++ b/packages/shared-types/src/test-cases/excel-sources/v1.0/v1.0_test-02_allegre.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ademecloud-my.sharepoint.com/personal/anna_lefoulon_ademe_fr/Documents/Bureau/3-OUTILS FRICHE/MUTAFRICHES/Tests_V1-ALGO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ademecloud-my.sharepoint.com/personal/anna_lefoulon_ademe_fr/Documents/Bureau/3-OUTILS FRICHE/MUTAFRICHES/Tests_V1-ALGO/V1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{B54C3A2D-C1A0-4C6C-9B8B-5A44A249C64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C4594C-3265-49B3-8C36-D974E4A64483}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{B54C3A2D-C1A0-4C6C-9B8B-5A44A249C64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9A27850-0A80-4BA8-8D11-E49B81ED7372}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Outil!$A$1:$K$41</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="174">
   <si>
     <t>Culture, tourisme</t>
   </si>
@@ -582,15 +582,6 @@
   </si>
   <si>
     <t>DCA + Géoportail</t>
-  </si>
-  <si>
-    <t>7 à 8</t>
-  </si>
-  <si>
-    <t>8 à 10</t>
-  </si>
-  <si>
-    <t>Supp 10</t>
   </si>
   <si>
     <t>Dégradation inexistante ou faible</t>
@@ -1045,7 +1036,7 @@
       <protection hidden="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1234,10 +1225,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="18" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1246,24 +1233,24 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="19">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1705,8 +1692,8 @@
   </sheetPr>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" zoomScale="68" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="68" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1818,18 +1805,18 @@
     <row r="6" spans="1:17" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1945,7 +1932,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>152</v>
@@ -1975,7 +1962,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>161</v>
@@ -1998,7 +1985,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>161</v>
@@ -2021,7 +2008,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>152</v>
@@ -2235,7 +2222,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>152</v>
@@ -2403,31 +2390,31 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!D$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!D$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!D$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!D$31))))),"0","")</f>
-        <v>Positif</v>
+        <f>IFERROR(IF(C23&lt;Base!C29,Base!D29,IF(C23&lt;Base!C30,Base!D30,IF(C23&lt;Base!C31,Base!D31,Base!D32))),"")</f>
+        <v>Très négatif</v>
       </c>
       <c r="G23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!E$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!E$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!E$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!E$31))))),"0","")</f>
+        <f>IFERROR(IF(D23&lt;Base!D29,Base!E29,IF(D23&lt;Base!D30,Base!E30,IF(D23&lt;Base!D31,Base!E31,Base!E32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="H23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!F$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!F$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!F$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!F$31))))),"0","")</f>
+        <f>IFERROR(IF(E23&lt;Base!E29,Base!F29,IF(E23&lt;Base!E30,Base!F30,IF(E23&lt;Base!E31,Base!F31,Base!F32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="I23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!G$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!G$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!G$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!G$31))))),"0","")</f>
+        <f>IFERROR(IF(F23&lt;Base!F29,Base!G29,IF(F23&lt;Base!F30,Base!G30,IF(F23&lt;Base!F31,Base!G31,Base!G32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="J23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!H$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!H$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!H$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!H$31))))),"0","")</f>
+        <f>IFERROR(IF(G23&lt;Base!G29,Base!H29,IF(G23&lt;Base!G30,Base!H30,IF(G23&lt;Base!G31,Base!H31,Base!H32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="K23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!I$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!I$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!I$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!I$31))))),"0","")</f>
+        <f>IFERROR(IF(H23&lt;Base!H29,Base!I29,IF(H23&lt;Base!H30,Base!I30,IF(H23&lt;Base!H31,Base!I31,Base!I32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="L23" s="16" t="str">
-        <f>SUBSTITUTE(IF($C$23="","",IF($C$23&lt;=Base!$C$29,Base!J$29,IF(AND($C$23&gt;Base!$C$29,$C$23&lt;=Base!$C$30),Base!J$30,IF(AND($C$23&gt;=Base!$C$32,$C$23&lt;Base!#REF!),Base!J$32,IF($C$23&gt;=Base!#REF!,Base!#REF!,Base!J$31))))),"0","")</f>
+        <f>IFERROR(IF(I23&lt;Base!I29,Base!J29,IF(I23&lt;Base!I30,Base!J30,IF(I23&lt;Base!I31,Base!J31,Base!J32))),"")</f>
         <v>Neutre</v>
       </c>
       <c r="M23" s="4">
@@ -3172,7 +3159,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="20" cm="1">
         <f t="array" ref="F38">SUMPRODUCT(IF(F$12:F$37="Très Positif",2,0),$M$12:$M$37)+SUMPRODUCT(IF(F$12:F$37="Positif",1,0),$M$12:$M$37)+SUMPRODUCT(IF(F$12:F$37="Neutre",0.5,0),$M$12:$M$37)</f>
-        <v>14.75</v>
+        <v>13.75</v>
       </c>
       <c r="G38" s="20" cm="1">
         <f t="array" ref="G38">SUMPRODUCT(IF(G$12:G$37="Très Positif",2,0),$M$12:$M$37)+SUMPRODUCT(IF(G$12:G$37="Positif",1,0),$M$12:$M$37)+SUMPRODUCT(IF(G$12:G$37="Neutre",0.5,0),$M$12:$M$37)</f>
@@ -3210,7 +3197,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="21" cm="1">
         <f t="array" ref="F39">SUMPRODUCT(IF(F$12:F$37="Négatif",1,0),$M$12:$M$37)+SUMPRODUCT(IF(F$12:F$37="Très négatif",2,0),$M$12:$M$37)+SUMPRODUCT(IF(F$12:F$37="Neutre",0.5,0),$M$12:$M$37)</f>
-        <v>13.25</v>
+        <v>15.25</v>
       </c>
       <c r="G39" s="21" cm="1">
         <f t="array" ref="G39">SUMPRODUCT(IF(G$12:G$37="Négatif",1,0),$M$12:$M$37)+SUMPRODUCT(IF(G$12:G$37="Très négatif",2,0),$M$12:$M$37)+SUMPRODUCT(IF(G$12:G$37="Neutre",0.5,0),$M$12:$M$37)</f>
@@ -3246,15 +3233,15 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="51" t="s">
+      <c r="F40" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
       <c r="M40" s="18"/>
       <c r="N40" s="1"/>
       <c r="Q40" s="1"/>
@@ -3267,7 +3254,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="10">
         <f t="shared" ref="F41:L41" si="2">IF(F38+F39=0,0,F38/(F38+F39))</f>
-        <v>0.5267857142857143</v>
+        <v>0.47413793103448276</v>
       </c>
       <c r="G41" s="10">
         <f t="shared" si="2"/>
@@ -3307,7 +3294,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="34">
         <f>RANK(F41,F41:L41,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" s="34">
         <f>RANK(G41,F41:L41,1)</f>
@@ -3315,7 +3302,7 @@
       </c>
       <c r="H42" s="34">
         <f>RANK(H41,F41:L41,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" s="34">
         <f>RANK(I41,F41:L41,1)</f>
@@ -3331,7 +3318,7 @@
       </c>
       <c r="L42" s="34">
         <f>RANK(L41,F41:L41,1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3371,8 +3358,8 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D46" s="52" t="s">
-        <v>176</v>
+      <c r="D46" s="49" t="s">
+        <v>173</v>
       </c>
       <c r="F46" s="36" t="s">
         <v>120</v>
@@ -3420,31 +3407,31 @@
       </c>
     </row>
     <row r="49" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F49" s="53">
+      <c r="F49" s="50">
         <f>F47-F41</f>
-        <v>2.7901785714285698E-2</v>
-      </c>
-      <c r="G49" s="53">
+        <v>8.0549568965517238E-2</v>
+      </c>
+      <c r="G49" s="50">
         <f t="shared" ref="G49:L49" si="4">G47-G41</f>
         <v>4.7222222222222165E-2</v>
       </c>
-      <c r="H49" s="53">
+      <c r="H49" s="50">
         <f t="shared" si="4"/>
         <v>-3.7037037037037035E-2</v>
       </c>
-      <c r="I49" s="53">
+      <c r="I49" s="50">
         <f t="shared" si="4"/>
         <v>3.4814814814814743E-2</v>
       </c>
-      <c r="J49" s="54">
+      <c r="J49" s="51">
         <f t="shared" si="4"/>
         <v>-0.10238095238095235</v>
       </c>
-      <c r="K49" s="53">
+      <c r="K49" s="50">
         <f t="shared" si="4"/>
         <v>-3.472222222222221E-2</v>
       </c>
-      <c r="L49" s="54">
+      <c r="L49" s="51">
         <f t="shared" si="4"/>
         <v>-6.9715382155420502E-2</v>
       </c>
@@ -3575,7 +3562,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3936,106 +3923,106 @@
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="48" t="s">
+      <c r="C13" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="47" t="s">
         <v>44</v>
       </c>
       <c r="I13" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="47" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="48" t="s">
+      <c r="C14" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="47" t="s">
         <v>46</v>
       </c>
       <c r="I14" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="48" t="s">
+      <c r="J14" s="47" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C15" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="48" t="s">
+      <c r="C15" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="47" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="47" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="48" t="s">
+      <c r="C16" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="47" t="s">
         <v>46</v>
       </c>
       <c r="I16" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="48" t="s">
+      <c r="J16" s="47" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4394,8 +4381,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C30" s="47" t="s">
-        <v>165</v>
+      <c r="C30" s="46">
+        <v>8</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>45</v>
@@ -4420,8 +4407,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C31" s="46" t="s">
-        <v>166</v>
+      <c r="C31" s="46">
+        <v>9</v>
       </c>
       <c r="D31" s="44" t="s">
         <v>49</v>
@@ -4446,8 +4433,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C32" s="46" t="s">
-        <v>167</v>
+      <c r="C32" s="46">
+        <v>10</v>
       </c>
       <c r="D32" s="44" t="s">
         <v>52</v>
@@ -6900,7 +6887,7 @@
         <v>43</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>55</v>
@@ -6965,7 +6952,7 @@
         <v>47</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>124</v>
@@ -7030,7 +7017,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>148</v>
@@ -7089,7 +7076,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>149</v>
